--- a/Test Case.xlsx
+++ b/Test Case.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msukantawanich/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msukantawanich\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Test Case</t>
   </si>
@@ -77,9 +77,6 @@
     <t>UI user friendly</t>
   </si>
   <si>
-    <t>Displays number of words in note</t>
-  </si>
-  <si>
     <t>Returns favorite identifier</t>
   </si>
   <si>
@@ -90,13 +87,106 @@
   </si>
   <si>
     <t>UI easy to navigate</t>
+  </si>
+  <si>
+    <t>6)</t>
+  </si>
+  <si>
+    <t>7)</t>
+  </si>
+  <si>
+    <t>8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combo Box shows options </t>
+  </si>
+  <si>
+    <t>9)</t>
+  </si>
+  <si>
+    <t>Test @ in Combo Box</t>
+  </si>
+  <si>
+    <t>Shows all @ tags</t>
+  </si>
+  <si>
+    <t>Test # in Combo Box</t>
+  </si>
+  <si>
+    <t>Test ^ in Combo Box</t>
+  </si>
+  <si>
+    <t>Shows all # tags</t>
+  </si>
+  <si>
+    <t>Shows all ^ tags</t>
+  </si>
+  <si>
+    <t>Allows input of search string</t>
+  </si>
+  <si>
+    <t>Test Search Combo Box</t>
+  </si>
+  <si>
+    <t>10)</t>
+  </si>
+  <si>
+    <t>11)</t>
+  </si>
+  <si>
+    <t>12)</t>
+  </si>
+  <si>
+    <t>13)</t>
+  </si>
+  <si>
+    <t>Sample string search : "  "</t>
+  </si>
+  <si>
+    <t>Finds number of occurences</t>
+  </si>
+  <si>
+    <t>14)</t>
+  </si>
+  <si>
+    <t>Updates results in text area</t>
+  </si>
+  <si>
+    <t>Clears results in text area</t>
+  </si>
+  <si>
+    <t>Allows new results in text area</t>
+  </si>
+  <si>
+    <t>Displays number of words in notes</t>
+  </si>
+  <si>
+    <t>Search field test</t>
+  </si>
+  <si>
+    <t>Update Button test</t>
+  </si>
+  <si>
+    <t>New Button test</t>
+  </si>
+  <si>
+    <t>Toggle button test</t>
+  </si>
+  <si>
+    <t>Remove Button test</t>
+  </si>
+  <si>
+    <t>15)</t>
+  </si>
+  <si>
+    <t>Activates _________ feature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,6 +232,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -412,17 +505,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" customWidth="1"/>
-    <col min="4" max="4" width="33.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="38.875" customWidth="1"/>
+    <col min="3" max="3" width="34.125" customWidth="1"/>
+    <col min="4" max="4" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -442,7 +537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -450,10 +545,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -461,55 +556,165 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="D27" s="1"/>
     </row>
   </sheetData>

--- a/Test Case.xlsx
+++ b/Test Case.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>Test Case</t>
   </si>
@@ -62,9 +62,6 @@
     <t>True Results</t>
   </si>
   <si>
-    <t>Open URL tag in browser</t>
-  </si>
-  <si>
     <t>Add favorite filter/identifier</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Returns favorite identifier</t>
   </si>
   <si>
-    <t>Opens URL tag in browser</t>
-  </si>
-  <si>
     <t>All buttons and input works</t>
   </si>
   <si>
@@ -107,21 +101,12 @@
     <t>Test @ in Combo Box</t>
   </si>
   <si>
-    <t>Shows all @ tags</t>
-  </si>
-  <si>
     <t>Test # in Combo Box</t>
   </si>
   <si>
     <t>Test ^ in Combo Box</t>
   </si>
   <si>
-    <t>Shows all # tags</t>
-  </si>
-  <si>
-    <t>Shows all ^ tags</t>
-  </si>
-  <si>
     <t>Allows input of search string</t>
   </si>
   <si>
@@ -158,9 +143,6 @@
     <t>Allows new results in text area</t>
   </si>
   <si>
-    <t>Displays number of words in notes</t>
-  </si>
-  <si>
     <t>Search field test</t>
   </si>
   <si>
@@ -176,10 +158,22 @@
     <t>Remove Button test</t>
   </si>
   <si>
-    <t>15)</t>
-  </si>
-  <si>
     <t>Activates _________ feature</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Shows all @ tags in Note</t>
+  </si>
+  <si>
+    <t>Shows all # tags in Note</t>
+  </si>
+  <si>
+    <t>Shows all ^ tags in Note</t>
+  </si>
+  <si>
+    <t>Displays number of words in Notes</t>
   </si>
 </sst>
 </file>
@@ -506,7 +500,7 @@
   <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -542,10 +536,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -553,10 +547,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -564,10 +561,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -575,10 +575,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -586,120 +586,124 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4">

--- a/Test Case.xlsx
+++ b/Test Case.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msukantawanich\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msukantawanich/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" tabRatio="500"/>
+    <workbookView xWindow="13800" yWindow="7460" windowWidth="19200" windowHeight="11500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Test Case</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>True Results</t>
-  </si>
-  <si>
-    <t>Add favorite filter/identifier</t>
-  </si>
-  <si>
     <t>Display word count</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>UI user friendly</t>
   </si>
   <si>
-    <t>Returns favorite identifier</t>
-  </si>
-  <si>
     <t>All buttons and input works</t>
   </si>
   <si>
@@ -107,9 +98,6 @@
     <t>Test ^ in Combo Box</t>
   </si>
   <si>
-    <t>Allows input of search string</t>
-  </si>
-  <si>
     <t>Test Search Combo Box</t>
   </si>
   <si>
@@ -131,12 +119,6 @@
     <t>Finds number of occurences</t>
   </si>
   <si>
-    <t>14)</t>
-  </si>
-  <si>
-    <t>Updates results in text area</t>
-  </si>
-  <si>
     <t>Clears results in text area</t>
   </si>
   <si>
@@ -146,9 +128,6 @@
     <t>Search field test</t>
   </si>
   <si>
-    <t>Update Button test</t>
-  </si>
-  <si>
     <t>New Button test</t>
   </si>
   <si>
@@ -174,13 +153,22 @@
   </si>
   <si>
     <t>Displays number of words in Notes</t>
+  </si>
+  <si>
+    <t>Allows input of Note Search</t>
+  </si>
+  <si>
+    <t>Save Button test</t>
+  </si>
+  <si>
+    <t>Save results in text area to Note</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -500,18 +488,18 @@
   <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D2" sqref="D2:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="38.875" customWidth="1"/>
-    <col min="3" max="3" width="34.125" customWidth="1"/>
-    <col min="4" max="4" width="34.375" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -521,9 +509,6 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
@@ -531,194 +516,201 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D27" s="1"/>
     </row>
   </sheetData>
